--- a/eservices_event-tickets_music-events_worldwide_AUD_en (1).xlsx
+++ b/eservices_event-tickets_music-events_worldwide_AUD_en (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wybb2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wybb2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFB7A3C-A8AE-4878-8D2F-FFB2FDD33014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A131B7FC-C938-4E71-A623-DEE6FDCD0332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="297">
   <si>
     <t>Statista Market Insights</t>
   </si>
@@ -910,6 +910,14 @@
   </si>
   <si>
     <t>REVENUE COMPARISON in million AUD (AU$)</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="32" type="noConversion"/>
+  </si>
+  <si>
+    <t>Country</t>
     <phoneticPr fontId="32" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +929,7 @@
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1077,6 +1085,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1120,47 +1133,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1560,20 +1575,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2517,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="O161" sqref="O161"/>
+    <sheetView tabSelected="1" topLeftCell="A150" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2537,13 +2552,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
+      <c r="A4" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>32</v>
@@ -5207,8 +5222,8 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
-        <v>124</v>
+      <c r="A69" s="32" t="s">
+        <v>295</v>
       </c>
       <c r="B69" s="24">
         <v>44.17</v>
@@ -8713,13 +8728,13 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="31" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="16" t="s">
-        <v>11</v>
+      <c r="A158" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>32</v>
